--- a/강릉.xlsx
+++ b/강릉.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -697,6 +697,873 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>강릉카페거리</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>별자치도 강릉시 창해로14번길 20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>['어느카페든 이쁘고 좋아요', '지나다 들렀는데 캎 레오파드라고 있어요 거기서 산원피스가 마음에 듭니다 바다는 한적한 옥계가 좋았어요', '자동차 무료주차 때문에 길거리 교통 통제가 안 됨', '장 : 바닷가+카페단 : 주차지옥, 교통지옥, 인파지옥강릉 왔으니 가보긴 해야지라는 생각으로 오면 장점과 단점을 여실히 느낄 수 있음그래도 꼭 추천할 수 밖에 없는 묘한 곳남자들끼리 와서 별로였나 싶기도...', '커피 맛집많고 바다가까워 좋고 또 가고싶당', '툇마루커피는 과하지않고딱 내입맛이더라', '프랜차이즈 많음', '우리나라 1세대 커피의 요람이자 산실그러나 카페 구실을 못하는곳이 너무 많다', '안목이랑 가까워서 갈 때 마다 들림.', '바다뷰 전망이 좋아서 강릉에 가면 항상 찾는곳입니다.근데 주말에는 사람이 많아서 주차하기가 너무 어려워요..', '굳이  가야할  장점이  ;;;', '좋아요 ☕️☕️☕️☕️☕️☕️☕️☕️☕️☕️', '커피콩빵사러 종종가요', '공영 주차장 이용하여 카페도 이용하기 좋고 저녁에 산책하기 너무 좋은 곳 입니다.', '뷰가 참 좋은 거리', '사람많고 복잡하고..', '강릉하면 들러야할 곳 대신 사람하고 차도많음', '바람쐬러 가기좋은곳.한산할때 골라서가야함', '행복한 강릉여행이였습니다 ㅎㅎㅎ 분위기최고~', '특색 없는 커피집만 드글드글', '12월 30일너무 추운것 빼곤 좋았음', '주차문제만 잘 해결되면 참 좋은곳인데 말이죠', '좋아요', '바닷가 앞커피 한잔', '뷰도 좋고 주변에 예쁜카페들 많아요 공영주차장에 무료주차가능', '예쁜해변에 예쁜카페들이 많아요', '카페에서 바라보는 안목해변이 몹시 아름답습니다.', '시원한 바닷가 중심으로 다양하게 예쁜 카페 모여서주위 배경 아름답고 멋지고 너무 마음 들어요', '어디를 가더라도 꼭 2층 창가쪽으로 가세요~~', '카페 모둠', 'ℹ 안목해변에 있는 다양한 커피를 맛 볼 수 있는 곳.✌ 카페 " 키크러스 " " 보헤미안 " " 테라로사 " " 산토리니 " " 공갈타샤 " " 엘빈 " 등이 유명하다.✌ 커피를 좋아하는 분들은 꼭 한번 가보면 좋을듯.. 주변 흔한 프랜차이즈 커피 전문점과는 다른 맛.( 사진 - 카페거리 전경 )', '정신없어서 다른데갔습니다']</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>강릉선교장</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>3.4</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>별자치도 강릉시 운정길 63</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>['한여름엔 그늘이 적어서 비추.그외 계절엔 넓어서 다니기좋아요.화장실도 깨끗 .', '이름에  비해선  그다지오래된  고택나름  유명과거엔  영화  촬영도  했다는데', '고즈넉한 풍경 좋아하면 추천 ~.~분위기가 좋아서 산책하기 좋다. 다만 카페나 체험 마감이 너무 빨라서 아쉽다.', '선교장 숙박. ( 내가 도시화 되었나? 체험하고 좌절)숙박은 비추. 허균생가(무료) 추천', '주변에 다른 볼거리 많습니다. 굳이.', '조선시대 대저택의 아름다운 정취를 맛보았습니다.', '입장료는 안받으시는게 맞습니다 이건', '달빛방문으로 예매하고 갔는데 너무 좋았습니다! 다음에 또 방문하고싶어요', '달빛방문 전에 낮의 선교장도 궁금해 좀 더 일찍 방문해 보았습니다. 생각보다 규모가 있어서 놀랐고, 무엇보다 이렇게 큰 규모의 한옥을 가꾸는데 입장료 5천원이 전 오히려 괜찮은 건가 싶었어요.', '선교장 입장료. 환불받아서 허균생가에 보내주고 싶다', '선교장 산책로에 앉아서 나무 바람에 흔들리는 소리 들으면서 쉬면 넘 좋아용 요기는 청룡길임당', '날이 좋아서 좋았습니다 입장료가 있어서 조금 아쉽네요', '5천원....값어치는 매우 아닌듯하다', '선교장 하루밤 묵었는데요잠을 자기는 좀 불편하고 잠깐들려 가볍게 옛 정취 느끼며 산책하면 좋을듯요', '큰 기대없이 방문했는데 정말 인상깊었던 곳입니다. 산책로도 잘 되어있고, 포토존으로 적당한 공간들이 여러 군데 있어서 참 좋습니다.', '고즈넉하니 조용하고 좋아요. 해설 시간에 맞춰 둘러보면 더 많이 이해하고 갈 수 있어요. 다음엔 숙박하러 오고 싶어요.', '크기 대비 비싼 느낌이긴 하지만 고즈넉해서 좋아요', '한가롭게 옛고택을 돌아보는  쏠쏠한 재미가있어요. 박물관도 작지만 있어서 유래도 알수있고즐거운 시간이었습니다.연못의 연꽃은 많지 않았지만 몇송이의 연꽃이 활짝피어 있어서 좋았습니다.', '열화당이라는 사랑채가 인상적이었던. 시절이 변하니 문화재에 대한 사람들의 감흥도 변하는 듯..', '능소화가 너무 예뻤던 곳! 가는거 추천!', '일단 가성비 최악이라고 말하고 싶네요. 입장료     2천원 저렴한 오죽헌이 훨씬 볼 거리도 많고 입장료가 아깝지 않습니다. 내부 공개 안된 부분 투성이고 폐쇄된 곳도 많고 경치도 그닥... 다시는 안 올듯 하네요..', '달빛방문으로다녀왔는데 넘이뻐요 날밝을때와도 이쁠거같아요', '도슨트 있으니 가능하다면 시간맞춰 꼭 들으세요 아는 만큼 잘 보입니다. 집이 아름답고 호젓하니 둘러보기 좋았어요', '멋있지만 가격이 비싸요', '30분이면 다보는데 입장료 5천원은 좀 과하다고 생각합니다. 소나무 풍경은 예뻤습니다.', '전문가들이 전국의 양반고택 중에서 최고로 꼽는다던데 와서 보니 이유를 알겠습니다. 정시에 맞춰 가셔서 꼭 문화관광해설사님의 해설과 함께 관람하십시오. 저희가 좋은 해설사 선생님을 만난 덕인지 모르겠으나 아주 재밌고 유익했습니다. 모르고 보면 그냥 기와집, 초가집입니다. 어떤 분들이 우루루 오셔서 해설 시간을 기다리시다가 그 중 한 분이 해설 안 들어도 된다셔서 다들 그냥 들어가시던데 해설을 듣고 나니 그 분들이 애석할 정도입니다. 강릉에 관광차 온 것은 처음인데 일행 모두 선교장이 제일 좋았다고 합니다. 여름이나 가을에 다시 방문하고 싶습니다. 사설로 운영되고 있어서 입장료는 좀 듭니다.', '입구에서 되돌아나오게 하는 가격', '뭐하러 돈내고', '친절 good 볼거리 입장료가?', '강릉 가면 무조건 여기서 묵음. 숙소로 사용되던 곳이 아니라 펜션 같은 곳에 비하면 평가하긴 그렇지만.. 여기 가면 항상 꿀잠자고 아침에 상쾌하게 일어나는 듯요. 아침에 일어나서 둘레길 도는 것도 좋고 매주 오르간? 연주하던데 그게 자연에서 울리는 파이프 소리가 엄청 묘하고 좋음', '일본놈꺼임', '가지마세요 진심 입장료 오천원 아까움 서울에 궁궐을 계절별로 한번 더 가는게 나음 입장료를 어디에 쓰시는건지? 연못에 연꽃이라도 좀 쳐내세요 그렇게 키큰 연잎 처음봣네요 정글인줄... 친일파 재산이라는데 남이섬처럼 사재라서 입장료가 비싼가요? 오죽헌도 입장료 3천원이던데', '입장료가 비싼 느낌이기는하나 부모님은 연장자할인받으시고, 둘레길도 걷고 여유롭게 한시간 산책 간만에 최고로 힐링되는 시간이엿어요', '낯선 곳이고 사진상 흥미로워 가볼까 했는데 친일파 이근우의 재산이었던 공간이니 반대로 홍보가 필요한 듯. 문화재 지정에 논란이 있었다는데, 논란이 있었다면 철회를 해야지 여전히 문화재인 것도 참 웃긴', '명성과 입장료대비 패싱에 한표보존가치는 있어 보이나 원형보존이 매우 부족발품팔아 가서 관람하기엔 부족하다 생각국가보물 관람료 대비 넘 비싸요유지비용도 좋지만 저렴한 입장료에 홍보가 우선요', '마을 둘레길도 걸어보시길.', '입장료에 비해 넘 아무 것도 없네요 선교장 내 커피숍도 넘 비싸요', '김덕자해설사님의 자세한 설명들으니 더 재밌고 의미깊었던 선교장이었습니다.', '좀 돈아까움. 생각보다 볼게 많진 않아서 기대보단 별로였다. 연꽃 들어가는 다리도 내가 갔을땐 막혀있었다.', '비오는 날 분위기 최고예요.해설사 선생님의 해설을 듣고선교장 내 카페리몽에서 차도 한잔^^', '친일파 퉤퉤', '막 되게 좋진 않고 슬쩍 구경할만 함', '깨끗하고 반듯한 세트장같은..유지비용 많이 들어 입장료가 비싼가?30분에 5천원 쓰고왔어요.', '입장료 5천원에 비해 볼거리는 부족', '20200214', '연이 잔뜩 있는 연못이 멋지지만 입장료가 비싼 느낌..... 한 이천원~삼천원이 적당 가격', '(친일파 명단에 포함된 이근우의 후손이 소유하고있는 국가 문화재)', '비쌈', '조용히 산책하기 좋아요~', '여유 있는 분들에게는 최고.. 바쁘게 볼 사람에게는 별로..난 여유를 느끼며 보니 좋다. 창경궁 연경당 보는 느낌.', '일제 조선총독부 고위직으로 있던 친일파가 살던 곳을.. 설악산국립공원보다 더 비싼 입장료를 받고 영업을 하고 있다니.... 반성하고 부끄러운줄 알아야지! 돈까지 쳐먹고 있네~~~ 에라이 퉤퉤퉤...', '경포대옆 고택', '아빠 친구 (효령대군 19대손) 집', '강릉을 몇번을 다니면서도 이곳을 몰랐네.가볍게 둘러볼만한 운치있는..', '고택스테이']</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>경포호</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>별자치도 강릉시 운정동 984</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>['내 마음은 호수, 자전거로 한 바퀴.', '탁트인 뷰가 보기 좋은 산책로', '물이 넘칠 것 같이 찰박찰박해서 신기하고 산책하기 정말 좋아요!', '산책로', '말이 필요 없는 여행지이자 벛꽃 명소.사진은 4월 9일경 찍었었는데 올해는 워낙 찬 동풍이 계속 들어 꽤 늦은 개화를 보였고 그나마 바다 가까운 나무들은 그 때도 덜핀 상태(...실화인가).그래도 내륙쪽은 참 탐스럽게도 폈었음.', '산책+운동 하기 좋아요', '24년 3월 31일혹시나 하고 벚꽃보러 갔는데아직 피질 않았네요 ㅠㅠ한 3일정도 후면 피기 시작할 것 같습니다.벚꽃이 없어도 충분히 좋았습니다', '한바퀴 도는데 빠른걸음으로 딱 1시간쯤 걸림', '산책하기 너무좋아요', '아름다운 경포호!!! 👍', '볼게 너무 없어요. 굳이 여행중에 들릴 곳은 아닌거 같습니다. 바로옆 경포해변은 날 좋은 날 가니 바다색이 예뻤습니다.', '냄새가 좀..... 좋지는 않더라구요... 그래도 경치는 좋아요 ㅎㅎ', '.', '경포호는 봄여름가을겨울 언제가도 항상 예뻐요 🧡 강릉 조아해서 매달 가는 저에게 아직도 불변의 최애 장소! 한적하고 윤슬도 예쁘고 오리도 귀엽고 정말 좋은 산책로에요 :)', '정말 예쁘고 좋음.', '(2023.08.13 방문) 아침에 러닝하기 위해 방문했어요. 경포호 산책길을 따라 한바퀴 뛰니 참 좋네요. 조금만 옆으로 가면 생태공원도 있고 송림도 있네요. 잘 정돈되어 있어 뛰기 좋았어요!!', '강릉여행 중 최고로 맘에 든 곳이에요전기자전거 빌렸는데 일반자전거 탈 걸 그랬어요 풍경이 이뻐서 조금 더 천천히 둘러보고 싶어요', '저녁 맛있게 먹기 위해서 소화시킬겸 둘러봄.자전거 대여해서 한바퀴 돌았는데 넘 힘차게 돌았더니 1시간도 채 안되서 다 돌아 버렸다... 다리 건너서는 여유있게 멈춰서 구경하고 돌아오면 좋을 듯 하다', '자전거나 모터바이크 같은 거 빌려서 한바퀴 쭉 도는 코스 추천합니다근처에 경포가시연습지도 있는데 자전거 잠깐 대서 구경하면 돼요자전거로 파워 운동하고 근처에서 막국수 먹고 아쿠아리움/아르떼 뮤지엄 방문하면 딱임', '일몰이 절경입니다', '그냥 시원하고 여기서 지전거 타면 개힐링됨 ㅋㅋ', '산책하기 딱 좋은 곳', '여기가 이렇게 예쁜 곳인지 몰랐어요. 날씨 좋을 때 꼭 꼭 가보세요. 걷기 좋아요', '한바퀴 빙 둘러보기에 좋은데 약간 허전한 감이 있다', '존예. 산책하기 좋음보고만있어도 평온관리도 잘되있는편', '새가 많아서 좋아요 나비도 있어요', '강릉만의 자연이 만들어낸 절경', '자전거 타고 한바퀴 돌면 최고', '한바퀴도는데 얼마나 걸리나  삼성헬쓰로 걸어봤어요. 제가 걸은 날 석양이 참 예뻤어요.', '경포호 오시면 꼭 전기 자전거를 타세요', '관리가 잘되어있어 깨끗하고 풍경이 정말 아름다워요! 걷거나 자전거타기 너무 좋습니다.', '자전거 타기 재밌어요~ 한바퀴 돌면서 구경하고 쉬고 사진 찍고 힐링타임!', '산책로를 정말 잘 꾸며놨다호수를 보며 호젓하게 걷기 좋고 시원한 바람은 보너스', '힐링 그자체', '아주 넓은 호수밤에 보면 운치있음', '좀 지저분..', 'ℹ 산책하기 정말 좋은 곳.✌ 주변에 경포대, 경포해변, 에디슨 박물관 등 관광지와 이 지역의 명물이 된 골든튤립 스카이베이호텔이 있다.( 사진 - 골든튤립 스카이베이호텔 전경 &amp; 경포호 전경 &amp; 보고 또 보고 소나무 )', '그늘이 거의 없어서 한여름 대낮에는 다니기 힘들다.', '생각보다 넓습니다']</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>강릉솔향수목원</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>별자치도 강릉시 구정면 수목원길 156</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>['자연경관이 빼어나고 산책 하기에 너무 좋은 수목원임.직접 방문 체험을 해 보기 바람. 적극 추천함.', '다람쥐님이 너무 귀엽습니다', '굿굿굿. 아무도 몰랐으면 좋겠다!', '비오는 날에 가서 한적하고 선선하니 좋았어요다음에 강릉오면 또 들르고 싶은 곳', '무료 입장 + 무료 주차. 작은 편이라 전체 훑어보는 데 약 1시간.산책하기는 좋은데, 수목 자체는 평균 이하.지역 기후 특성상 늦게까지 봄꽃이 남아있는 편.', '너므나 조은거', '산책하기 너무 좋음. 입장료없음', '꽃이 없는 시기나 겨울에는 암석원에 가보시기를 추천.', '입장료가 없는데 이렇게 관리가 잘되어있다니 산책하기 너무 좋았어요', '편안하고 안락한 곳이에요.', '산책로', '입장료받는 다른 곳들보다 훨씬 좋아요. 무료인데 시설관리가 잘돼서 산책하기도 너무 좋아요. 오랜만에 다람쥐 많이봐서 좋았어요', '월요일 휴무인거 확인하고, 부모님과 화요일 방문했는데 전날이 한글날휴무였다고 오늘 영업중으로 나오는데 문을 닫았네요. 지도에 영업중인거 확인하고왔다니까 나몰라라 하시고. 그거보고 온사람들 꽤 많았고, 관광차량까지 오던데 개인매장도 아니고 관리똑바로하세요￼주차하기 편해요', '강릉에서 제대로 힐링하고 갑니다.강릉에 살았으면 매주 주말마다 방문했을 것 같습니다.', '부모님 모시고 집에 돌아가는 마지막날 일찌감치 왔는데 정말 좋습니다..  소나무향 피톤치드입구 부근에 산림욕 할수 있게 야외 베드도 몇개있어서 ...  연세가 많으셔서 잠깐 돌아보고 가는데..  다음에 다시 한번 더 와서 제대로 힐링하고 가고 싶네요..역대 수목원중 최고입니다.  입장료도 .. 수목원 조성도  강릉시  칭찬합니다...~~^^', '조용하고 아름답고 난대식물원까지잘 꾸몄네요', '조용히 산책하기 너무 좋았습니다.', '꼭 다시방문 하고싶네요', '추석연휴……. 당일휴원으로 입장불가 ㅜ 입구에서 돌아나옴…; 다음기회에 !', '강릉시에서 기획하고 조경하신 수목원인가요? 정말 기분좋게 시간 보내다 갑니다. 잘구성되어고 조경되어있는 각종 식물들과 냇가발담그기 시설까지... 부모님이 넘넘 좋아하셨어요. 입장료무료 주차장무료도 마음에 드네요', '정말 좋아요', '무료로 이용할 수 있어서 감사 ! 주차장도 여유 있어서 편하게 이용했어요', '꼭 한번 와볼만한 곳...', '계곡 물소리 들으며 산책하기 좋아요.', '정말 쵝오 입니다.무료에 물에 발도 담글수 잇고 아이들도 너무 조아할듯', '임시휴업입니다.. ㅠㅠ 홈페이지에도 안내가 안되어있네요', '이런곳을 무료로 운영하다니 너무 좋아요', '수목원중 가장 좋았어요', '등산함 ㅋㅋㅋㅋ', '차가 없으면 가기 힘든 단점이 있지만피톤치드 잔뜩 ~ 힐링~', '일단 무료입장인 점에서 만족합니다. 조경과 관리도 잘 되어 있고 산책로 정비도 잘 되어 있고요. 코스도 전반적으로 한시간 언저리면 둘러볼 수 있을 정도로 적당합니다. 화장실도 깨끗합니다. 다만 쓰레기는 버릴 수 있는 곳이 없기 때문에 반드시 들고 되돌아가야 합니다.', '화려한 맛은 없지만 조용히 걷다보면 힐링된다흐르는 계곡물 맑고 내려가 직접 느낄 수도 있다계곡길따라 난대식물원까지 쭉 오르다 U턴해서 숲속 데크길로 내려오는 걸 추천', '여기 정말 잘 꾸며놓고 관리 잘되어있네요.근데 중간중간 뱀조심 써있는데 진짜 뱀나와요깜놀했네요 조심하세요!', '지인이 추천해줘서 갔는데 너무 좋네요', '무료고 산책하기 좋아요', '강릉시에서 꼼꼼하게 운영하는 만큼 관리 굿 무료여서 굿굿♡', '청량하니 좋아요!!!']</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>영진해변</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>4.6</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>별자치도 강릉시 연곡면 영진리 357-155</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>['작지만 너무 예쁜 해변. 가족들과 산책하기에 너무 좋은 곳', '해변 산책로를 따라가다 보면 친절한 고양이님이 어두운 밤길 헤매일까 에스코트도 해주십니다. 같이 나란히 앉아서 밤바다도 바라보고 왔어요.', '파도도 세지 않았고, 아담하니 좋았습니다. (2024년 8월 22일)', '모래사장이 완만해서 아이가 모래놀이하기 정말좋아요.한적하고 조용해서 힐링하기 좋아요.화장실도 공사중이었지만 새로짓고있었고 주위에 편의점이며 먹거리도 다양하게 있네요', '아름다운 해변입니다', '제일 좋아하는 해변이에요', '해수욕장이 예뻐요', '조용한 해변 원하시면  영진해변 추천해요잘 쉬다가 왔어요', '해수욕하기 좋은곳. 앞에 카페들이 즐비해있다.', '박이추에서 커피마시다 창문으로 보이는 바다색에 이끌려 드라이브 온 곳최고다… 해안가 도로변에 주차하고 음악만 들어도 너무나 기분 좋고 멋있던 곳', '너울성 파도가 크면 바다수영을 못한다.하지만 이 곳은 천연바위들 덕에 파도가 크지 않다. 그래서 아이들 있는 가족단위로 오면 좋다.1. 개인적인 그늘막과 파라솔을 설치 할 수 없다.     검은 티 입은 건장한 남성들이 못하게 막는다.     대신 그들이 형님형님 부르는 양팔에 문신 있는        남성에게 15,000원을 주고 파라솔을 빌려야      한다. 그러면 은박돗자리 하나를 준다.2. 수상안전요원이 없다.     이 곳은 수심이 앞쪽은 낮지만, 깊어지는      곳이 있어 수영금지구역으로 안내문구가      설치되어 있다.3. 깔끔하다. 그늘막에 도떼기시장처럼 사람들이     난잡하게 몰리지 않아서 좋다.4. 15,000원이 아깝지 않다.     최고에요~', '영진해변 사람도 적고 완전 예뻐요!', '이때까지 본 바다 중에 젤 예뻤어요! 너무너무너무 예뻐요!!!!!!! 사람도 적어서 좋아용ㅠㅠ', '너무 좋았다', '가족단위 물놀이 객들이 많은 해변', '모래사장 보면 한 숨만 나옴........', '오빠~~~~~~ 신랑~~~~~~ 우리 여기 자주 오자~~~ 2021.6.16 우리 사랑 영원히~~~~', '관광지 좋아요~~', '드라마 도깨비 촬영지라서 이쁘게 사진찍으러방문했어요~ 사진 대박 이쁘게 나오네요!!!', '생각보다 넓은 해변, 도깨비 빙의해서 한 컷 찍기 좋은 데이트명소', '도깨비 촬영지로 유명해서 갔는데 마침 방송촬턍도 하더라구요. 이쁘고 이색적인 바다풍경 좋아요.', '7/19방문, 이쁘네요', '저는 처가가 이쪽이라 매번 오는데요. 그냥 여느 동해 바다랑 다를 바 없습니다.팁이랄까? 바위 모여있는 곳이 그나마 아이들 놀기 좋고, 근데 좀 좁구요. 대신에 자잘한 고기들이 많이 있어서  간이 스노쿨링 체험하기 좋구요. 반려동물 출입 금지니 참고하시고요. 그리고 좀  외곽으로 가면 개인 파라솔이나 바람막이 쳐도 딱히 재제 없고 맘 편히 놀다오기 좋아요. 그리고 여긴 아무래도 해수욕보단 먹거리니 잘 드시고 보너스로 놀다 간다 생각하시면 꽤 괜찮은 곳이에요.', '해변 자체는 다른 동해안 해변보다 좋지는 않지만 방파제(도깨비 촬영지)에서 바라본 바다는 진짜 아름다워요..다른 해안 방파제와는 비교할 수가 없을 뿐만 아니라  영진해변에만 작은 방파제가 3 갠가 있는데 드라마에 나온 방파제에서 본 느낌이 가장 좋아요(드라마 로케 장소 전문으로 담당하는 사람들이 있다 던데 진짜 전문가들은 다르네요). 늦은 오후에 갔는데 드라마에서 나온 바로 그 바다 분위기여서 정말 정말 좋았어요.', '도깨비 촬영지', '조용하고 아늑한 해변']</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>사천해변</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>별자치도 강릉시 사천면 방동리 282-1</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>['텐트 3 차박 3 카라반 5', '좋은 추억 만들고갑니다~!주차공간도 넉넉해서 좋았어요', '다른곳보다 모래가 햐얘서 이쁜곳!!', '차박 명소. 일출명소 .근처에 관리 되는 화장실 있음.편의점 있는데 밤에는 무인 운영함.', '한적하고 조용한편이에요.시원하게 바닷바람 맛으며 멍때릴수있는곳.주차장도 잘되어있어서 차안에서 바다보기도 좋아요.', '2011년 가족들과 함께 민박에서 자고해수욕 했던 추억이 좋았던곳 입니다 ^^더 잘되세여~', '사천해변 노을 Pink sky\U0001fa77☁️ 넘 좋아용', '생각보다 파도가 세고 주변 먹거리가 별로 없어요마트도 없어서 강릉까지가야하고..사람없는덴 이유가 있는듯…', '자릿세 1만원. 그치만 공용주차장이 크고 넓어서 좋아요.가까이 편의점이 있어서 편해요.샤워장 유료,발씻는곳도 있어서 편해요', '자전거로 경포를 가기 전에 쉬어가는 곳.한적할 때는 한적하고, 사람 많을 때는 많다.서핑하기 좋은 곳. 👍 카페도 제법 있다.', '경포옆의 작은해변. 공용주차장 넓어요.', '조용하고 아담한 바닷가. 차박 좋아요', '캠핑해변', 'Отличный пляж! Я бы сказала - дёшево и сердито. Есть паркинг прям вдоль пляжа. Стоимость 10 000₩  за машину. Аренда зонтика 10 000₩, аренда 2х зонтиков на тапчане 40 000₩, спасательн.жилеты и круги за единицу-10 000₩.Можно поставить палатку, тент, что угодно на выделенной территории, прямо под деревьями))) Можно пользоваться газовой горелкой, плитой(мангалов не видела, скорее всего нельзя), готовить пищу. На территории есть туалет (к сожалению грязный, без туалет.бумаги). Есть также платные душевые (дешёвые 2000-3000 ₩), общая раковина на улице.На территории также можно заночевать. Стоимость за ночь не знаю. Берег довольно чистый, песок не сильно крупный. Глубина большая. Буйки от берега в метрах 10-15. Вода довольно прозрачная, но есть мусорок, в виде водорослей и других природных компонентов. Контингент- в осн. хангуки. Рядом есть серф клуб, где можно арендовать всё для сёрфинга. А также магазины и несколько кафе, закусочные. Рекомендую приезжать пораньше до 11 дня, в идеале в - 9, можно занять лучшие места под деревьями ^^', '일출이 예뻐요', '21.07.후기: 물 너무 더러워요', '와우~~~~~ 한적하니 좋네요!!!!!!!!역시 동해라서 물은 깊고 깨끗했어요!모래가 너무 이뻤어요. 샤워장은 조금 더 올라가서사천진해변 앞에 유료샤워장 있습니다.1인당 삼천원이구요. 한번에 두명씩 들어갈 수 있어요ㅋㅋ 제 기준 사천진 해변이 더 놀기엔 좋았을 것 같아요!', '조용해서 좋습니다. 사천해변에 가면 꼭 제트보트 타세요 놀이기구보다 재미있어요!!', '사람많고 자리 없음입구에 막아놓고 누군가 야영비를 받음', '조용 한 곳이 였는데 요즘 어수선 하내요...', '한적하고 바다색이 다채로워 아름다운 추억 쌓기에 좋은 곳드라마 남자친구 촬영지', '테라로사 앞바다']</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>주문진방사제</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>별자치도 강릉시 주문진읍 교항리</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>['입장료는 없음주말 낮시간대에 가면 사람 많으니 주의하시길 바랍니다', '저는 드라마 안봐서 잘 모르고 바로 옆 백사장에서 갈매기님들이랑 같이 놀았는데 시간 가는 줄 몰랐어요!!', '도깨비 첫 맛남 촬영 장소...', '사진을 찍었으면 다음사람을 위해서 좀 피해줍시다 !거깃 한참을 앉아서 노닥거리고 왜 그럽니까 ?', '예뻐요 🌊🌊🌊🌊🌊🌊🌊', '하필갔을때 공사한다고 막아놔서 제대로못봤네요 바람 엄청 불어서 파도장난아니였어요 그래도 경치는 쵝오', '여기 사진 찍으러 고생하며 올 필요까진 ? ...', '20230920', '사진찍기 괜찮음', '목요일 11시쯤에가니 사람 2~3명만 있어서 금방 찍었어요. 근데 파도가 중간에 세게 쳐서 옷 버릴수 있으니 조심하세요.', '일출 짱!', '도깨비촬영지로 갔는데 짱 좋았음 사진찍는데 웨이팅함', '(2023.06.04 방문) 현재 공사 중. 그래도 안쪽 까지는 갈 수 있음. 도깨비 촬영 장소로 매우 유명한 곳.', '기대1도 안했지만 주변에 공사하다보니 영 별로였습니다 그냥 근처 카페 전망대 올라가서 감상하세요', '맞은 편 젤라또 가게에서 꽃다발 목도리 빌려주더라구요 근데 드라마 안본 사람한테는 감흥이 없는 곳이었어요.. 바람 엄청 불고 아직 좀 추웠어요', '현재는 큰 공사중이라 접근하지 못하고 입구서 바라만 볼수 있어요~ 도깨비 방송되기전에는 그냥 평범한 여러개있는 방사진중 하나였는데...특별한 풍경은 없어요', "드라마 '도깨비' 촬영지로 유명해진 곳(But 2023년 5월 현재 대규모 공사중;;;)사실 뭐 별거없는 방사제이지만..주문진 앞 바다가 너무 맑고 깨끗한데다 가슴이 시원해 질 정도로 광활해서 촬영지 아니여도 방문해 볼만 함.얼핏보면 에메랄드 바닷빛이 제주를 생각나게도 함.주변에 먹거리 카페, 젤라또집, 식당들 즐비함", '정~~~~말좋았음 다들사진도 열심히찍어주시고 겨울추천!', '도깨비 촬영지', '진짜 예쁘고 사진도 잘나옵니다👍👍힐링하다가 가는 느낌이네용', '방파제가 하나만 있는게 아니였네요^^ 진짜 촬영지는 사람이 많아서 옆 방파제에서 찍었어요^^ 세븐일레븐 편의점 뒤쪽으로 작지만 주차장있어요. 화장실도 있구요~', '사진 잘 나오는데 방파제에 부딪히는 파도에 바닷물 샤워할 준비는 하셔야해요ㅋㅋ..', '사진 기가막히게 나오네요. 사진들 찍기위해 줄이 쫘~아악. 하지만 즐거웠어요. 잠고로 저희는 주차를 근처 도깨비쉼터공영주차장(강원 강릉시 주문진읍 교항리 48-202)에 하고 걸어갔습니다.', '여기서 사진 찍었는데 너무 잘나옴', '「孤單又燦爛的神-鬼怪」韓劇鬼怪中最具代表性的拍攝景點絕對就是位於江原道江陵市注文津領津海的防波堤，原本只是平凡的防波堤，在鬼怪播出後，這裡就成了鬼怪迷都知道的金信與池恩倬初次見面的地方。 #海岸邊天氣好', '겸사겸사 들리면 좋은 곳!사진만 찍고 호다닥', '방파제에서 사진찍기 좋고 바다는 예쁜데, 주변에 아무것도 없어서 지나가는 길에 들리면 좋은 정도', '맛있어요', '노을과 파도가 예쁜 곳', '도깨비 촬영장소로 유명한 곳!줄서서 사진찍을 정도는 모르겠어요ㅎ', '도깨비 촬영지 중 한곳. 방사제 외 아무것도 없어요. 모래사장도 거의 없고, 길도 좁아 기념사진 촬영 외에는 할만한 일이 없다는 점이 아쉽습니다.', '밤에 가시면 안됩니다 아무것도 없거든요.. 낮에 여친 남친 꽃들고 가서 사진찍으시면 이쁠것 같아요', '바다가 이쁨', '도깨비 촬영지도깨비 팬이엿던 분들은 한번가셔서 사진찍고 오시는것도 나쁘진않을거같아요', '도깨비방파제', '멋져요']</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>사천진해변</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>별자치도 강릉시 사천면 진리해변길 131</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>['해변이 워낙 길고 깨끗해요. 해변도로가에 주차할 곳도 넉넉해서 주차 스트레스는 크게 걱정 안하셔도 좋아요. 해수욕을 하신다면 파도가 있는 날에는 군데군데 수심이 갑자기 깊어지니 안전하게 천천히 입수하시길바래요. 아이들이 있는 경우 구명쪼끼 챙기세요!', '바다 색감 너무 예쁘고 산책하기 좋은 해변이다.근처에 카페도 많아서 쉬어가기 좋은 곳이었다!', '4년전에 방문했을땐 서해안처럼 수심이 완만하게 낮아져서 아이들하고 놀기 좋았는데 수심이 급격히 낮아져서 아이들이 놀기엔 조금 위험해진듯 해요 ㅠㅠ', '산책하기 좋아요. 근처에도 카페예쁜곳많음. 주차도 널널했음', '탁 트인 동해바다가 좋지만파도가 워낙 거센 곳이라 해수욕엔 적합치 않음그냥 답답한 마음 풀러 오기엔 괜찮은 장소~사천진 바위섬이 있어 좋음', '해수욕장 폐장한 뒤에 방문했습니다. 파도가 엄청 세서 휩쓸리기 딱 좋네요. 모래자갈이 꽤 굵은편입니다. 공기도 물도 맑고 깨끗해요. 사람이 많지 않아서 좋았어요. 서핑하는 사람들이 꽤 있었어요.', '규모가 작고 뷰는좋습니다. 사람많고 복잡한것 싫어하시면 강추!', '일출명소 차박', '재미는 있지만 편리하지 못한 곳. 파도가 세고 조금만 들어가도 어른 키를 그냥 넘겨서  헤엄치거나 서핑하기 좋음. 바위들이 많아서 파도가 낮을 때 한정으로 물고기 구경하기 좋음. 극성수기에도 경포대보다는 공간이 좀 나옴. 카페나 편의점은 있지만 화장실 샤워실 찾기가 하늘의 별따기에 애엄마들이 탈의실에 애를 데리고 들어가서 오줌을 누이므로 반드시 해변에 펜션을 잡을것을 추천. 2차선도로에서 도로에 걸쳐 주차된 차들과 통행차량과 인근 가게로 들어가는 차량과 인도가 없어서 도로로 다니는 보행자들이 한데 뒤엉켜 조금만 차가 몰려도 지옥같은 교통체증이 발생함.', '화장실 개오바에여', '코로나 때문인지 사람도 그닥 없고 조용하니 좋네요, 바다는 스노쿨링하기 좋게 맑고 ~ 다만 편의 시설등은 좀 부족합니다', '한적하고 해변앞에 작은다리로 연결된 아주작은 돌섬이있는데 좋아요그리고 헤변뒤에 CU편의점이 크게있는데 사장님이 매우 친절하십니다', '한가해서 좋아요', '바다 낚시']</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>국립대관령자연휴양림</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>별자치도 강릉시 성산면 삼포암길 133</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>['휴양림 주변 산책하기에 좋은 곳입니다', '숲속의집은 웃풍이 조금 있다. 연립동이 조금 더 따듯.', '산책로', '카맵 사진둘러보니 경치좋고 이것저것있어서 보여서 왔는데 ...아쉽게도 그냥 등산로입구입니다.산좋아하는 등산객들이 찾는곳이라 애들어른대리고 오는 그런 산책하는 휴양림이 아니라고 매표소안내분이 그러시네요.저처럼 차돌려나오눈차량이 제뒤로 4대연속나왔어요아마도 저처럼 산책하는 휴양림이나 식물원같은걸로 착각하고 오는분들많나봅니다.', '비가 와서 미리 2시 30분이 안되어 관리소에 갔는데 열쇠를 안주고 체크인만 하고 3시에 다시 오라함. 숙소에 가보니 주변에 청소하시는 분들 없고 청소상태가 끝난 상태였고 소나기가 쏟아져 다시 휴양림관리소에 2시 50분에 가니 청소가 다 끝났다는 연락을 못받아 열쇠를 못주었다고. 청소가 끝났으면 기상상태 봐서 융통성이 필요한 시설임.', '아름다운 경치는 기본.  새들의 노래와 계곡물이 흐르는 소리와 노송들의 향기는 자연 치유제입니다.', '자연의  소리만 들어서 넘 좋았어요.   나만', '남직원분 친절하십니다~', '대통령쉼터 옆 전망대에가면 강릉시내 전망이보여요 ㅡ소나무숲 향기와 자태가 멋지고 새소리 맑은 계곡물소리 청설모 구경 등 너무 가공되지않아 좋았어요~*', '입구로 올라가는 길이 아무래도 산 속이다보니 경사도 좀 있고 커브길도 많았지만 올라가는 순간 입장료가 아깝지 않았어요. 성인2인 기준 입장료 인당 1000원에 주차비가 3천원이었는데, 관리해주시는 분이 안내책자 주시면서 위치설명 및 루트 설명과 소모시간을 알려주셨어요. 주차장으로 더 올라와서 차에서 내리니 그 산공기가 확 느껴지는 게 너무 좋더라고요. 화장실도 굉장히 깨끗해서 야영장과 병행해서 사용하는 곳이라곤 생각되지 않았습니다. 산책하려 하니 야영장 추가공사하는 쪽 담당하시는 분께서, 이쪽 길은 좀 미끄러워서 넘어질 수 있으니 저쪽 루트로 가라고 알려주신 덕분에 남편과 즐겁게 산책하고 왔습니다.', '잘 쉬다 갑니다 소나무 숲과 계곡이 멋져요등산로 몇몇 표지판은 하얗게 빛바래고 보이지 않는데 재정비가 필요해 보이네요', '코로나시기에 산책로나 등산로에마스크도 안쓰고 다니는 사람이 80프로...서로 교행할때는 최소한 마스크 써줘야하지 않나?옆사람 지나가는데 마스크도 안쓰고 떠들고 다녀..ㅠㅠㅠ 무식이 하늘을 찌른다.', '힐링의 끝!!! 강추합니다.또 가고싶네요', '매표소 상당히 불친절!사유지인가요?화장실좀쓰자니까 문전박대!정말 어디다 신고해야되는지....얼마나 급하면좀 매표소화장실좀쓰자고했겠어요..이건 국립이아니야...사유지로 알겠음!', '매표소 불친절바람바람바람', '화장실에 하수구냄새 올라오는거 빼고 다좋음', '인기 많아 예약 힘든데 운 좋게 연립동 예약.다녔던 휴양림 중 숙소가 제일 깨끗함.관리하시는 분들도 친절.좋은 공기, 새소리, 꽃과 나무들.등산로는 많은데 노약자를 위한 산책로는 아쉬움.휴양림이 넓으니 미리 동선 파악하셔서 알차게 이용하시기를 추천.', '깨끗함이 아주 좋아요']</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>강릉월화거리</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>별자치도 강릉시 경강로 2111</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>['야시장 아니더라도충분히 들를만한 곳이에요!', '관광객의 구매 욕망을 충족 시켜 주는 곳.', '폐철도를 새로 꾸며 만든 거리라고 하는데, 생각보다 짧고 뭐 볼 것은 없었지만 한적하고 산책하기에 나쁘진 않았어요. 뒤쪽으로 가서 길을 건너면 야시장이 열리는데 여긴 꽤나 복작하긴 하지만 이런 지역 문화는 좋은 것 같습니다.👍', '걷기좋음.', '야시장이 크고 볼만해요', '생각보다 야시장 메뉴들이 맛있었어요', '그냥 시장이랑 구경하기 좋아요', '기차길을 이렇게 산책로로 재탄생시키다니 정말 훌륭해요. 주민과 관광객 모두를 만족시키는 아이디어 칭찬합니다.', '강릉 월화거리는 강릉역에서 부흥마을까지의 철도가 있던 자리에 형성된 거리입니다.월화라는 이름은 남대천 월화정 설화에서 따온 이름입니다.거리를 따라 카페, 선물가게 등이 밀집해 있고, 안쪽으로는 강릉 중앙시장과 성남중앙전통시장이 이어져 있어서 거리를 산책하며 다양한 먹거리와 볼거리를 즐길 수 있는 곳입니다.', '월화거리 야시장 정말 별로에요.먹거리가 즐비하고 다양할거라 생각하며 기대했어요.먹고싶단 생각이 들지도 저렴하지도 않아요판매하는 상인들도 많지 않아요.강릉놀러온 친구들 데리고 땀 흘리며 방문했다가 미안했어요.', '포토존', '월화거리 야시장을 시작했다길래 가봤는데 서울 밤도깨비 야시장 생각하면 가격 진짜 저렴하고 친절하세요, 강릉 지역 상인분들이 하시는 것 같은데 그래서 그런지 더 양심적으로 하시는 느낌(?)그리고 메뉴가 하나도 겹치는 것 없게 구성되어있어 좋네요, 볼거리가 은근 많아요', '2013년까지만 해도 사진과 같았던 곳.. 그냥 시장이었는데 철길 지하화 하고 천지개벽..', '풍물시장은 지금은 다 철거 되었네요.', '시장맛집 구경가는 길!', '강릉중앙시장 가면 꼭 한번 들어보는것도 괜찮네요~', '철도를 없애고 남대천 넘어서까지 깔끔하게 공원화중앙시장 옆이라 거리에 카페, 먹거리가 즐비잘만 가꾸면 강릉시에 핫한 명소가 될 듯', '파는메뉴가 다 똑같아서 전을 좋아하는게 아니면 그냥 중앙시장으로 가는게 더 나아요']</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>초당순두부마을</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>3.3</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>별자치도 강릉시 강문동 146-35</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>['괜찮고 주차 잘되서 좋긴한데웨이팅 오래기다리면서 먹을정도는 아님', '터무니없이 비싼것만아니면 다시가고싶음. 두부 두장에 8000원은 너무 심함', '주말 점심시간 동화가든이 만차라 대기 시간도 길어 주차장이 여유롭길래 한번 가봄. 밑반찬은 맛있고 다양함. 그러나... 짬뽕 순두부는 물을 탄 듯한 밍밍함 그 자체... 인기가 많은 집과 아닌 집은 분명 확실한 차이가 있는 것임.', '늘 강원도를 오면 가는곳 !!!!', '멥기만', '초당 순두부 마을의 순두두젤라또 1호점.가게 앞에 주차공간이 있고, 웨이팅 줄도 금방 줄어 바로 먹을 수 있어 좋아요.', '경포대에서 걸어가면 소나무숲 사이로 나오던 마을. 여염집 부엌에서 의자 놓고 앉아 먹었던 낯선 순두부의 기억.', '아기자기한 여러 식당과 카페가 즐비예전엔 고택에 작은 가게가 많았는데관광지화되면서 건물도 커지고 꽤나 현대화됐음더불어 사람도 많아지고 가격도 사악해짐;;', '주차요금 없었으니 입장료는 없었고바다가 보이지 않았으니 뷰는 모르겠고좋은 사람과 함께 해서 그런지음식은 좋았음', '마을 구경하기에 나름 괜찮! 바다 바로 옆 한가한 시골 전형적인', '기대보다 맛은 보통인데 가격이 넘 비쌈', '음식이 너무 짜요(동화마을)2명가면 짬순2개가 아니라 하나는 짬순 하나는 일반 순두부 시켜 드시는걸 추천아 물롱 해장엔 훌륭함', '기대보단... 정식시키면 나오는 황태구이 맛있음', '이돈받고...?', '강원도 음식도 엄청 좋아졌군요.', '굳이 차막히는데 갈필요 없음 그냥 시내 순두부전문점 가는게 나을듯.', '7시에 대부분 문닫습니다 참고하시길', '유명한집 유명하지 않은집의 차이가 크지 않음. 웨이팅 짧은 집에 가기를 권함.', '늦게까지않함 늦으면 갈생각 ㄴㄴ']</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>BTS 버스정류장</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>별자치도 강릉시 주문진읍 향호리 8-39</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>['맑은날 가면 경치가 정말 좋아요.', '포토존 드라이브명소', 'BTS 성지 중 가장 유명한 곳으로 봄날 앨범 재킷을 찍은 장소예요 많은 국내와 외국인 아미들이 끊임없이 방문하는 곳이고 바로 뒷편이 해변가라 분위기 정말 좋아요💜', '포토존', '드라이브명소 일출명소 포토존 ...굿!', 'BTS좋아하신다면함 가볼만한곳입니다.뷰가 좋아요', '어디 가는 길에 살짝 들르자', '아름다운 바다에 호젓한 버스정류장줄서서 사진찍기외국인들이 많이 찾아옴', '딸이  방탄소년단 팬이라  강릉에  갈때마다  들리는곳이 됐네요  정류장옆 해변은  노을조차도  아름다운 곳이예요', '포토존', '뷰는 좋으나 관리를 안하는 거 같아요.칠이 벗겨져있고 색이 바래져있음. ㅠㅠ', '한번쯤 가보면 좋을 곳 뷰도 예쁘고 옆에 그네도 있고 근처 카페에서 음료사서 걷기 좋음.', '드라이브코스 포토존 벚꽃명소 여자친구가 BTS 아미팬이라서 갔는데 짱 멋있었음', '앨범촬영장으로 주문진에 가면 볼수 있는곳BTS명성 만큼 계절, 시간, 따질수 없을 만큼인기있는곳. 여행객이 뭄빌땐 주차는 필히하고 가셔요. 가볍게 산책도 좋아요', '평범한 해변(향호) 옆 버스정류장인데 방탄소년단의 인기가 실감나는 곳이었습니다. 아직도 줄서서 기념 사진을 찍으시더라고요. 당연히 실제 버스가 서지는 않으니 들르시면 기념 사진 남겨보세요. 그리고 향호 해변이 참 예쁘니 산책도 하시고요.', '아미들의 성지인데 바다풍경도 굿이랍니다. 가까운 곳에 향호리 석호도 꼭 걸어보세요. 넘나 아름다운 벚꽃길이에요.', '지나는 길에 요즘 유명세를 타는 장소라 하여 들려본곳...풍경은 탁트인 주문진 해변에 있어 좋습니다...작은 정류장과 포토존 표식이 있는데 BTS 팬분들이라면 좋아할듯~ 외국분들도 계시던데...', 'cute place to take photos', '바다랑+버스정류장 조합이 예뻐서 사진찍기 좋아요', 'You never walk alone!', '재미삼아 사진찍으러 한번 들르기엔 좋아요ㅎㅎ', '이거랑 주문진 해변이 끝이지만 예쁘니까 아무튼 OK입니다 ^_&lt; 주말이라서 그런지 추운 날인데도 줄 서서 사진 찍었어요', '촬영지라는 점 빼고는 별로...', '엄마 아빠 나날씨도좋았구 하늘도 너무 이뿌고참 감사하고 행복한시간이였어요추억만들기 힐링하고  효도하구BTS 뽀에버 우리가족 뽀에버', '생각보다 되게 아담하네요 ㅎㅎ유명해서 지나가다 들렀는데 평일이라 그런지 한산했어요!', '아련한 방탄의 봄날 분위기를 느낄 수 있는 장소. 다시 봄날이 올 때까지 꽃피울 때까지', '바다가 깨끗하고 풍경이 멋져요.', '마눌이 가고싶다해서.', '도로변에 있구요! 셀카봉 삼각대 필요없어요! 폰만 들고오세용', '월요일오니까 조용하고 고즈녘함. 다만 버스정류장 앞에 주차는 하지 않았으면 좋겠음.', 'BTS버스 정류장 주차하기는 쉽지 않았지만 사진 찍기 괜찮았어요', 'after coming Korea this is the only place that am going to remember all my life', 'BTS의 앨범 촬영을 했던 향호해변의 버스정류장']</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>소돌해변</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>별자치도 강릉시 주문진읍 주문리</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>['25년도이후 물놀이하실분들 구명조끼 꼭 입고 멀리가지마세요 파도 조심하세요 위험표지판 안보여 적습니다 특히 폐장이후는 들어가지마시길. 물깨끗하고 뷰 좋고 음식이나 카페는 맛있어요', '30년 전부터 다녔음.물놀이하기도 좋고 가족단위 방문하기 좋은곳.화장실도 나름 깔끔한편.성수기때 주차하기 힘들힘들..\U0001fae0', "해변은 좋음다만 아쉬웠던 점은파라솔 및 튜브 대여시 카드 결제 불가임 (전날 놀았던 경포해변에서는 카드 받음) 모래사장에 있는 큰 천막에서 파라솔탁자 4만원 튜브 1만원에 대여함.그리고 도로쪽에 올라가면 공중화장실 있는 가게서 튜브 5천원에 대여함. 여기는 샤워시설은 3500원인데 이용은 안해봄.대신 좀더 아래쪽(주문진 반대편)으로 걸어가다보면 슬러시샤워라고 쓰여진 곳이 있는데 (작은 커피숍이랑 붙어 있는 곳) 인당 4천원이고 거기 이용했는데 주인(70대 정도 되는 여성)이 샤워중 문 벌컥 열고나서 잘못 알았다고 '미안'이라고 한마디 함. 손님이 우리 둘 밖에 없었는데 뭘 잘못 알았다는 건지 모르겠고 다른 정황들로 보았을 때 쌔한 느낌이 드는 곳이었음..무튼 소돌해변은 잘못없고 참 좋은 곳임", '예뻐요\U0001fa75\U0001fa75\U0001fa75\U0001fa75\U0001fa75\U0001fa75\U0001fa75\U0001fa75\U0001fa75\U0001fa75\U0001fa75\U0001fa75\U0001fa75\U0001fa75\U0001fa75\U0001fa75\U0001fa75\U0001fa75\U0001fa75\U0001fa75☺️', '❤️', '바닷물은 깨끗하고 좋은데 샤워장이 엉망임.', '조개도 많이 잡히고 좋아용', "마을전체가 소가 누워있는 모양이라 하여 '소돌'이라 불렸다는데, 그건 잘 모르겠고..해안 전체가 푸르른 바닷빛에 큰 규모에 비해 내려가 발 담궈도 될 정도로 해안가는 얕다.근처 소돌해안산책길에 올라 내려다 보는 뷰가 끝내줌!사실 주문진해변과 이어져 있어 굳이 이름을 나누는 게 의미가 있을까 싶다..", '바다안개자욱한날 ~~', '동글동글 이미지가 많은 해변베이지색 모래가 정말 곱다.', '작고 얕음', '나만 알고싶은 마을.. 고즈넉하고 너무좋아요', '여행지로 찾아와서 보는정도눈 아닌것같고 밥먹고 산책용도로 좋은거 같아요~', '모래가 부드럽고사람도 많지 않아서 좋았어요해질녘 석양은 정말 최고~소돌해변에서 소돌 바위까지 산책거리가 좋네요', '해변가 산책로 잘조성되어있음.', '나만 알고 싶은 곳.진짜 사람적고 경치 최고인듯', '바다 전망대 최고날씨 좋은 날 올라가면 속이 시원해요~', '소돌 아들바위 옆 횟감 참 좋습니다']</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>임해자연휴양림</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>별자치도 강릉시 강동면 율곡로 1715-85</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>['새로 리모델링을 한건지 시설도 깨끗하고 조용하고 묵기좋았어요!', '인근 해수욕장과 가까운 위치', '이틀 머물고 왔는데요.시설은 쏘쏘뷰는 최고예요.', '유일한 바다를 볼 수 있는 휴양소라는데  바다를 보기란 하늘동 일부를 제외한 곳은 그냥 숲속에 있다고 생각하면 됩니다. 바다가 멀고 지평선만 보여 하늘과 진배 없어요. 오르는 길도 가파르고 실내 인테리어(바닥)도 좀 해야 것어요.', '2019년 3월 숙박전망이 매우 좋습니다. 뒤에 괘방산 활공장 올라갔다오면 좋아요', '주방기.청소.욕실.뷰  good . 침구는? 직원 친절 감사 합니다', '봄에 가니 진달래동산^^ 바다도 보이고 조용하고 다음에도 가려고요.', '여기처럼 씽트대 깨끗한 휴양림은 없었다아침에 해돋이도 장관이고너무 깊숙히 있어서 그게 좀 흠이다', '다음엔 자러 와봐야지.', '너무 좋습니다. 점점 사람들에게 많이 알려져서 숙박예약이 쉽지 않네요 ㅠㅠ', '바다가 한눈에 보이는 전망이 정말 멋진 곳입니다. 구비된 식기, 침구도 모두 깨끗하고 구성품목이 적절하게 잘 갖추어져 있어요. 수건과 마실물을 매일 제공해주어서 편리했어요. 그간 다녀보았던 휴양림 중에서 최고라고 인정합니다. 계속 가보고 싶은 곳입니다. 강추입니다☆☆☆☆☆', '휴양림의 끝판왕경치, 숙소, 직원들의 친절함 까지 최고였습니다제일 위에 있는 하늘동이  경치는 최고', '바다보이는 풍광이 끝내주고,휴양림 근처산책길도 좋고,직원들이 관리를 참 잘합니다.', '가장 최근에 지어졌다는 구름동. 넓고 깨끗하고 베란다에 심어진 꽃이 인상적.', '전망이 좋고~~']</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>대관령</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>별자치도 강릉시 성산면 어흘리 산 2-12</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>['드라이브 코스로 좋네요']</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>부연동계곡</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>별자치도 강릉시 연곡면 삼산리 산 133-12</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>남항진해변</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>별자치도 강릉시 공항길127번길 67</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>['바닷가 근처에 카페, 막국수집, 공방, 아라나비 (짚라인)체험 등 볼거리, 먹거리, 체험할거 나름 있어서 쉬기좋아요', '바다뷰 좋고 멋진 일출도 감상하실 수 있습니다.', '파도 대박', '그냥, 보통이에요. 아무것도 하지 않았어요', '안묵보다 많이 알려져 있지않아서 여유있는 주차장과 쉼을 즐길 수 있다.남항진해변에 주차하고  솔바람 다리위에 올라가면 바다 한가운데 서서 바다를 볼 수 있다.', '타지역대비 조용하고 주차편리해서 좋네요', '안목이 문제냐 .남한진이 문제냐  니들싸웠냐?  다리좀 놔달라해라  언제까지 돌아처다닐래?', '남항진은 처음 알았는데 사람도 없고 너무 예쁘네요', '해수욕장도아니고 딱히 볼게 없는곳', '아라나비도 타고 좋았어요']</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>금진해변</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>별자치도 강릉시 옥계면 금진리</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>['서퍼분들의 명소인가봐요.서핑 동호회 분들도 많고, 서핑을 즐기고 계세요.9월에도 수영합니다.', '해변이 깔끔하고 좋네요.근데 보트가 너무 사람들가까이다녀서 신고마렵네여', '정동진 해변보다 훨씬 예쁩니다😍😍', '모래도 아주 곱고 경치도 좋고 파도도 좋습니다.너무너무 깨끗하고 아름다운 해변입니다.사계절 다 좋은 바다예요.주차장도 무료이고요.방문하시는 분들 계속해서 깨끗하게 사용하시면 좋겠어요.', '동해 많이 갔지만 그중에서도 파도가 엄청 좋은 곳. 사람도 없는 한적한 해변이라 더 좋다.', '조용하고 한적한 곳...♥️', '서핑과피서 해송군락가 어루러저 가족 휴양지로 최적지  .........', '작지만 이쁜 해변. 서핑을 즐기는 사람에게 참 좋은 곳. 망상해수욕장에서 치킨, 음료수 사가서 먹으면 꿀맛. 어두워지면 모기가 기승을 부리니 꼭 모기기피제를 준비하자.', '5년안에 사람 바글바글 할듯..!', '바닷물도 정말 깨끗하고, 사람이 적은 편이라 조용해 좋아요!', '진짜 아끼는 곳.. 여긴 제발 유명해지지 말자', '한적하고 느낌이 소박함']</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>허난설헌생가터</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>별자치도 강릉시 난설헌로193번길 1-16</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>['날씨 좋은 날 갔는데 너무 좋았음 생가도 잘 보존되어 있는 것 같고 조경에 신경 쓰신 게 느껴짐 산책길 아름답고 나무,꽃,풀 구경만 해도 기분에 너무 좋아짐', '관리를 매우 잘 해놓으신 듯합니다.', '뒷편에 키큰 벚꽃이 있네요.', '강추~특히 조선시대 집구조를 알수있음.', '허균, 허난설헌 영정이 있어요. 영정은 사진촬영 금지입니다. 남매 중 누나가 예쁜편.', '간단하게 산책하고 둘러보기 좋습니다', '보존상태가 꽈 조ㅗ다집 뒷쪽 소나무숲도 인상적', '산책하면서 힐링하기 좋은곳소나무가 특히 멋있음', '생가터 뒤 소나무 숲이 정말 좋다', '..월요일이라 사람없어서 쾌적하다고 했는데 월요일이라 닫았다는 비극. 찬찬히 산책하다보면 옆으로 건너갈수 있음(아르떼). 사진찍는거에 목적이 아니면 뮤지엄 밖에서 사진찍고(인증) 밖에있는 카페를 이용하는게 팁. 참고로 가격대비 컵이 좀 작음. 맛은 괜춘. 근데 거기 특별메뉴는 사진용으로만 시키는걸 추천. 넘나 쁘띠함.', '다른 고택은 사람이 살았다는 느낌이 안 나는데 생활의 흔적이 느껴져서 좋았습니다', '고즈넉하고 해송림도 너무 아름답습니다. 강추', '겨울에 가면 겁나 따뜻함. 바람 안 불고 햇빛 쨍쨍', 'ℹ 기념관 옆에 위치한 생가터.⚠ 비극적인 죽음의 허씨 남매. ✌ 꽃 피는 봄에 오면 좋다는데.. 지금은 그냥 산책.( 사진 - 생가터 전경 &amp; 허균 &amp; 허난설헌 )']</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>안반데기 뚜레전망대</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>3.3</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>별자치도 강릉시 왕산면 안반데기1길 199</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>['밤에 오면 별이 이쁘게 보인다고 하는데 확실한건 낮에 가면 안되는 곳인건 맞는듯. 경사도 꽤 되고 차 없으면 가기 매우 힘들다.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>대관령아기동물농장</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>별자치도 강릉시 사천면 송암골길 197-13</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>['비가와서 갈까말까 망설였는데 실내로 연결된느낌이라 좋았어요 동물들 많고 체험도 좋고 야외인걸 감안하면 진짜 깨끗하고 관리 엄청하시는구나 느껴져요,,\U0001fae7 입장료는 1인 만원이었습니다 (20개월이상부터)', '다른 목장들은 건초비용 받거나 조금밖에 안줘서 다주고나면 구경만 해야되는데ㅜ여긴 건초가 👉무제한이에요!!! 진짜 원하는대로 계속 꺼내서 주고싶은만큼 줄수잇어요!!!!진짜 관리도 너무 잘되잇고 기대안하고 갔는데 진짜 200% 만족하고감 💓 너무 기야웟슴', '직접 먹이줄 수 있고평소 보기 어려운 다양한 동물 근접으로 관찰할 수 있음아이들 동물체험하기에 강추 👍특히 아기염소 &amp; 알파카 너무너무 귀여움 ㅠ 🐐🦙', '동물들이 사람손을 타서인지 도망가지도않고 먹이도 줘서 동물과의 접근성이 좋았어요 타조는 좀 위험할지도요? 어린아이들에게는 ㅎㅎ 너무 잘먹어서 그릇까지 먹을거같더라고요 그러다 쪼이면 아플듯', '동물이 생각보다 많아서 놀랐는데여기서 볼 수 있을 거라고 생각 못한 동물이 너무너무 많았어요체험 목장이면서 스트레스에 취약한 동물을 이렇게 많이 전시해 놓다니??대충 먹이주고 구경하고 싶은 분들은 가면 만족하겠다 싶은데동물 키워보셨거나 좋아하는 분들은 가면 마음 상할 거에요강아지들은 기니피그만도 못한 넓이 칸에 가두고 키우고 알파카 목줄은 1m나 되나 모르겠네요저는 햄스터 키우는 사람으로서 볼 때 패딩 입어야 안 추울 정도로 추운 곳에서 그것도 열마리는 되는 애들을 한 곳에서 키우는 게 너무 어이 없었네요한 케이지에 몇 마리씩은 눈이 파여서 없었고 등에 물려서 파인 상처가 있거나 죽은듯이 움직이지도 않는 녀석들도 있고..상식적으로 햄스터가 사람이 막 만지면서 놀아도 멀쩡한 동물도 아니고..딱 봐도 햄스터는 싸게 살 수 있으니까 대충 몇십 마리씩 주기적으로 사서 채워가면서 시체 치우면서 키우시나 본데 너무 안타까웠습니다뭐 사람 사는거 돈 버는거 다 그렇지 하고 넘어갈 분들만 가세요', '동물들 종류도 많아서 그런지 볼것도 많았어요. 다만 아기 병아리나 메추리를 만져볼 수 있게 해놨는데 몇마리는 사람손에 시달리다가 죽었는지...ㅠ 그냥 눈으로만 보게 해줘도 충분할 것 같아요..쟤네들은 죽어도 상관없는게 아니잖아요 또 어떤 아주머니가 물고기들을 작은 물바가지로 거칠게 퍼서 애기들 보여준던데 그 큰 물고기가 물 밖으로 강제로 나와 바가지 안에 갇혀서 펄떡펄떡거리는게 넘 기괴했어요.. 중간중간에 관리자나 제지해주시는 그런분이 있었음 좋겠어요. 오리는 짱 귀여움', '좋음', '위생은 괜찮아보이나 물고기들이 다수 죽어있거나 움직임이 적음. 아기동물은 사람에게 노출이 많이 되는데 들지 말라고 문구를 적어놓아도 아기들이 작은 메추리나 병아리를 손으로 집음 좀 더 대체 방안이 필요할듯살면서 아기 동물들을 다양한 종류로 볼 일이 별로 없는데 다양해서 좋았음 프레리독이 엄청나게 귀엽고 다람쥐도 엄청나게 귀여움', '정말 좋네요~ 3살먹은 보솜이가 제일 귀엽습니다', '비쌈..할인도 없고 애기포함해서 5명 갔는데 애기  노는거 보라고 5명 들어오라고..  이렇게 해서 돈받아먹는듯.. 최악', '건초는 중간중간 무료로 먹일 수 있어서 좋았고시설관리도 잘되어있고 동물들도 건강하게 케어되고있는 느낌이었습니다. 아이가 너무좋아해요~ 다음번에도 재방문의사있어요~!', '동물들이 귀엽고 착해요규모는 작지만 한번 가보기엔 좋을듯 하네요^^제주도에 새별***에 비하면 훌륭해요그런데 애기들 입장료는 다른데보다 세네요. 20개월부터 무조건 어른 요금인 1만원이예요^^;', '이런 류의 동물 체험장치고 규모가 상당히 커서 볼 것이 많고, 동물들에 아주 가깝게 다가갈 수 있어서 아이들이 매우 흥미로워 함.', '이때까지 다녀본 목장중에 가장 좋았습니다.', '자주온 곳이라 중학생아이만 들여 보낸다고해도 안된다고 어른이 있어야 한다며 입장료  받아 먹는 곳이네..', '너무 귀여워요 .. 택시비만 18000원 들었는데도 값어치 합니당 ㅜ 근데 너무 어린 아이들은 동물들한테 함부로하는 모습들이 많이 보여져서 보호자분들이 좀 조심해주셨으면 좋겠어요 ㅜㅜ', '아기동물농장중에 동물이 가장많고 커요', '5관한우관에서 한 15분동안 계속 건초옮겨서 밥주는데    한번도 안준소....우네요 ;;; 개미지옥도 아니고... 땀흘리면서 계속 퍼다 주게됩니다...아이는 바가지로 미꾸라지잡겠다고 정신이 팔려있고요... 집 근처에도 있었으면 좋겠네요', '매번 좋습니다.', '여기 진짜 좋음 -_-;;;', '댓글들 뭐지??제일 나은데', '줄이 너무 짧아요 동물학대 같아요 코로나 때문인지 손님이 없어서 애기들이 많이 굶은것같아요', '에류', '아이들이랑 가기 최고 좋아요깨끗하고 동물들 관리도 잘 되어 있는 듯화장실도 깨끗하고 온수도 잘 나와서 좋았어요재밌게 놀다 왔어요', '재미있게 잘 놀다 갑니다', '아.. 왔는데 기분이 너무 불편해서 가네요. 즐겁게 와서 밥 주려고 왔는데.. 알파카는 제자리에 움직이지 못하게 묶어놓고 양들 줄고 너무 짧아요. 적어도 이름이 동물농장이면 동물들 좀 신경쓰세요. 강아지들은 진짜 전부 다 앙상히 말라있고 너무나도 착한데 목줄은 왜이리 짧게 묶어놓나요? 그리고 새끼새들.. 몇 마리는 사람애들한테 밟혀죽었겠어요. 애들이 괴롭혀도 관리인들은 쳐다도 안보고 보다 못해 제가 가서 그만 좀 하라고 했습니다. 동물학대현장 보고 온거 같아서 진짜 기분 그지 같네요. 좀 개선하세요. 목줄 좀 길게 해주고 적어도 배는 안 고프게 하셨으면 좋겠네요.', '팩트만 적으면, 동물을 위한다면 가지마시길 추천합니다. 적어도 뒤에 제가 적을 점들이 개선이 된다면 모르겠지만요. 저도 그저 한 인간인 뿐이라 지나가는 행인의 견해로 들으셔도 상관은 없습니다. 부지 자체는 크고 동물 종류 다양합니다. 그런데 인간 아이들이 시끄럽게 떠들고 뛰어 다니고 플라스틱 먹이국자를 작은 동물들에게 다칠정도로 들이밀고 고래고래 동물들에게 먹으라고 강요를 해도 통제하는 관리인이 전혀없습니다. 그렇게 하지못하게 부모들이 지도를 해야겠지만 1관부터 5관까지 관리하시는 분 한분 계시고 동물들의 안전을 위해 고용된 사람은 없어 보입니다. 바깥 염소같은 경우 1미터 밧줄에 묶여있는데 그늘에서 쉴 수도 없고 땡볕에 내내 노출 되 있구요, 곳곳에 강아지가 3마리 정도 있는데 다 1미터 줄이고 강아지들이 다 말라서 다 뼈밖에 안만져집니다. 닥스훈트 한마리는 동물 우리 안에 있는데 사료를 주니 허겁지겁 먹습니다. 아이가 너무 말라 더 달라고 하니 "주말이라 리필이 안되는데 조금만 더 드릴게요" 해서 20알을 더 줬습니다. 강아지들 다 착하고 사람 손길 좋아하는데 너무너무 말랐습니다. 산책을 시켜주시긴 하는지 사람들이 주는 밥 외에 음식이나 물이 제공은 되고 있는지... 프론트에 일하시는 분들부터 동물을 사랑하거나 위하는 마음보단 생명으로, 동물들의 배고픔과 굶주림으로 돈벌이 하시는 것 같았습니다. *아기토끼 고슴도치 햄스터 기니피그 아기동물들* 모두 다 인간아이들/사람들에게 그냥 노출되있습니다. 아기동물들은 모두 바닥에 배치하였고 사람의 손길을 피할 수 없는 구조 입니다... 굶주린 강아지들이 저희를 여기로 부른건지.. 여기 좋다고 재밋다고 하시는 분들 - 정말 전 모르겠습니다..', '돈 벌이용 동물들이 불쌍합니다. 아기동물농장?... 글쎄요!', '여기만한 곳 없는듯...열심히 먹이주다보니 내가 알반가? 느낄정도..ㅋㅋ원없이 체험가능 아이가 너무 좋아함..', '완전 좋은데 너무 멀어서 또 못가봄', '건초 장사 하시는 분들은 때돈 버실 것 같아요. 동물들 관리도 나름 잘 되있고 너무 더럽지도 않고 좋았어요', '너무 불쌍해요 애들이 동물 쥐고 흔드는데 제제도 없고...바가지로 소동물들 괴롭히고 ㅠㅠ양들 목줄 꼬여서 10cm도 제 맘대로 못움직이고..다신 가고싶지않아요', '귀여운 아기동물들 만나러 다녀왔음.', '묵여있는 염소,양은 불쌍하지만..운동 충분히 시킨다고 하니...아무튼 아기와 같이 가기 좋음날씨 안좋을때 가서 사람도 많이 없었고..', '와 여긴 아가들이 넘넘넘 좋아할곳!!! 인당6천원에 사료도 주고 + 아가 승마체험 만오천원 +우유주기 이천원 다 했는데, 돈 안아까움. 동물도 종류가 매우 많다, 사슴 고슴도치 타조 양 강아지 등 정말 가까이서 볼 수 있다. 종류도 많고 넓고 관리도 잘 돼있음. 가봤던 동물원 중에 최고! 다만 동물학대느낌은 지울 수 없었음;;;']</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>런닝맨 강릉점</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>별자치도 강릉시 창해로 307 파인동 2층</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>['아 개재밌아요 ㄹㅇ 근데 이지모드 할걸 ㅠㅠ노멀은 중고생 혹은 성인남성이라길래 걍 해봤는데 진짜 어려웍음', '강릉 여행을 하던 도중, 이런게 있다는 걸 급하게 알아가지고 바로 예약을 해서 하러 갔답니다 ㅋㅋㅋㅋㅋㅋ 정말 땀빠지게 놀았구요여러가지 미션들이 있는데 그 미션들을 클리어하면서 빙고를 만들어가는 놀이더라구요!!제한시간은 1시간인데 처음에 이지, 노말, 하드 모드를 선택할 수 있는데 한번 고르면 못바꾼다고 합니다... 운동선수 출신이 아니시라면 무조건 다들 이지를 선택하는게 좋습니다. 노말이면 1시간안에 1빙고 못만들지도 모릅니다... 저도 나름 운동 좋아하고 순발력 있어서 자신있게 노말모드 했는데 생각보다 고전해서 1빙고 완성시켰습니다...완성한 빙고에 따라서 선물을 주는 거였음 좋았을텐데, 그게 아니라 방문한 사람들 다 런닝맨 배지를 주는 것 같더라고요? 배지 받고 땀 뻘뻘흘리구 왔답니다 ㅋㅋㅋㅋ', '짱잼!! 시간이 살짝 모자라서 못해본것도 있당 ㅜ ㅜ이지모드인데도 아무리해도 못깨겠는거 있어서 애탐ㅋㅋㅋㅋ', '뮤즈도 보고 런닝맨도 했어요주차는 무조건 지정된 외부주차장 이용하셔야 시간 등록 가능합니다.초중고 모두 방문 가능! 연인 가족 데이트 적합! 다만 초딩이나 체력그지인 분들에겐 이지 모드도 좀 어려울 거예요 ㅋㅋㅋ 전 체력 그지라 넘 어려웠어요..... 다음날 일어나니 두드려맞은줄 ㅋㅋㅋ 개인적으로 뮤즈는 가격이 저렴해서 보는거지 안에 빔프로젝터나 보여지는 부분에 대한 관리가 좀 미흡합니다. 눈 아픈 부분이 몇 보여요 감안하고 보셔야 해요', '들어간지 20분안에 나왔습니다블로그 보고 나름 후기보고갔는데많이 시시합니다규모는 큰데 막상 입장해보면 수도권 소규모 과학관이랑 놀이수준이비슷합니다냉방이 잘 안되어서 많이 더웠습니다.', '어른입니다.애들(30대초)이 가자고 해서 갔는데 처음 몇분쯤 탐색시간이 지나곤 정말로 땀벅이 되도록 잘 놀았네요.운동도 많이 된듯 합니다.쪼매 아쉬운거는 1. 처음 방문한 사람들이 게임 방법을 이해할 수 있게 설명을 글로 써서 게시해 줬음 하네요. 모니터에 나오는 방법을 보고 하기엔 대기 손님과 주어진 시간 짧다는~2. 정비를 빠르게 해얄듯요.. 자동차 운전은 핸들이 파손되어 핸들링이 어려운것도 있고, 사격하는 총은 슈팅이 안되는 것도 있고, 고장으로 서있는 것도 있어요.', '괜찮아요!근데 간혹 게임 버튼같은거 잘 인식 안되는게 있어요...그런건 좀 고쳤으면 좋겠네요 그래도 애때매 간건데 어른도 넘나 신나게 하고와서 끝나니까 땀범벅...운동되고 좋네요 이지로 했는데도 어려웠어요', '고장이 많아요기계 상태보고 시작해야되요', '진심 너무 재밌어요.. 올빙고는 좀 힘들어요 처음 가시면 이지 하세요', '그냥저냥 즐길만함', '기계가 반절은 고장 난듯시설 관리도 제대로 안하고 그냥 장사하는거 같음', 'Easy 모드로 열정적으로 신나게 놀고 왔네요.한시간이 순삭됬네요.', '이런걸 왜해; 하고 갔다가 승부욕생겨서 목숨걸고함', '너무재밌었어요', '가격이 좀 사악하네요..한시간은 금방 가고, 여기갔다오면 체력방전', '생각보다 너무 재밌네 성인2명이 땀뻘뻘흘리면서 했지만 올클은 절대못함', '힘들어 죽겠어요.. 성인 여성은 제발 이지 하세요… 승부욕 넘쳐서 노멀 선택했다가 혼났네요ㅠㅠ한시간 떼우려고 했는데 생각보다 재밌어요!', '너무 힘들고 미션성공시키기 힘들지만 1시간동안 시간가는줄 모르고 놀았어요 ㅋㅋㅋㅋㅋ', '한시간동안 시간때우기 좋아요난이도 노멀했는데 일부 게임은 성공하기 불가능해보였어요ㅠ', '여자매니저불친절합니다.', '너무 재밌었어요! 땀 흘리면서 오랜만에 잼있게 놀았네요 ㅋㅋㅋ 근ㄷㅔ 한시간 너무 짧고 노말 했는데 생각보다 깨기 어렵더라구요..']</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>소금강계곡</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>별자치도 강릉시 연곡면 삼산리</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>['계곡 자체는 좋은데 허락된 구간이 200미터 밖에 안되어서 사람이 많아지니 놀공간이 없었어요', '물놀이 물놀이 물놀이', '물놀이 하기 좋아요. 가족단위 방문객들이 많았어요. 화장실은 두 곳인데 한곳이 공사하고 있었어요. 남은 한곳은 물 없는 화장실이라 불편했어요. 🙁 손은 씻을 수 없었어요. 주차료 비싸다는 후기 있었는데 저는 비싸다는 생각 안들었어요.맵에 나온 위치보단 캠핑장 주변 상가와 주차장을 찍고 가야 해요.', '계곡은 빼어남. 단 주차료가 장난 아님.', '이틀 전에 다녀왔는데 계곡물이 맑고 수량도 풍부해서 감탄했습니다. 경치도 참 좋습니다. 계곡길이지만 습하지 않아 날벌레가 없고, 숲길이 나무로 우거져서 낮에도 덥지 않게 트레킹 할 수 있었습니다. 구룡폭포 지나서는 입산 통제 시간이 정해져 있어서, 하절기에는 오후 2시부터 들어갈 수 있습니다. 이 계곡길의 끝은 노인봉으로 편도 9~10km를 걸어야 하는 긴 코스입니다. 주차장은 유료로 5천원인데 먼지 터는 기계는 따로 마련되어 있지 않지만, 넓고 깨끗해서 좋았습니다.', '으수기랑 민박', '구룡폭포까지 트래킹 gogo', '절경', '강릉 오대산에서 제일 경치가 좋죠..계곡이 너무 좋아요..요즘은 계곡 출입을 하류 아닌 이상 막더군요', '소금강', '강릉 소금강', '우리나라 최고의 계곡']</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>탑스텐호텔 금진온천</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>별자치도 강릉시 옥계면 헌화로 455-34 1층</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>['투숙객 아닌데 온천이용할 분은 네이버에서 할인티켓 구매하고 방문하세요! 참고로 경로우대는 불가해요!!고지대에 위치하여 목욕 후 시원한 바람으로 머물다 갈 수 있고온천장도 깨끗하고 조용하고 여러 탕들 있어 힐링 잘 하고 갑니다!', '별이 다섯개.....만점을 드리고 싶었으나......남탕에앉아서 씻는데 비누곽 있는부분,  물때 곰팡이가 너무많습니다....', '온천여행을 위해 전날 덕구온천에서 1박후 이곳 탑스텐호텔에 1박하면서 온천을 위해 방문하였으나, 온천탕은 매우 실망입니다.온천의 수질은 분석데이터를 믿는다해도 온천욕의 기본인 물의 온도는 제대로 측정해서 관리해야 하는게 기본일텐데, 탁한 물이 있는 탕만 온천수인데 물 온도 표기는 39. 2도 디스플레이되지만 실제 온도는 보통 온탕보다 더 낮은 온도라 온천욕을 하는 건지온천욕은 뜨건한 물에 몸을 담구는 자체로 힐링되는데 ......그리고 바로 옆 열탕(온천수 아님) 은 수온 42도 표기되었지만 발을 넣기 힘들 정도로 뜨거워서 아무도 들어가지 못하는 상태라,  관리하시는 분에게 온도 재확인해서 온천수 온도를 올리고 옆 열탕(온천수 아님) 은 온도를 내려 달라고 했는데.......디스플레이되는 온도랑은 안맞다는 둥.........(맞지 않는 온도계 왜 그냥 사용하는지??)   족욕탕도 미지근 탕입니다.  이건 기본이 안된 온천이라고 생각됨.그리고 샤워부스내 샤워 꼭지(자동)은 8초 나오고 끝....다른 꼭지도 확인하니 10초...12초   아무리 물을 절약한다해도 이건 사워 한번 하면서 스위치 몇번을 눌러야 되는건지.???.옆에 다른 꼭지 딱 하나만 대략 30초 정도 나오고 나머지는 다 찔끔~~수준입니다.(짜증날 정도)결론적으로 온천이라고 하긴 무리이며 대욕장은 일반 대중탕보다 못하다는 결론입니다.   온천욕을 기대하고 가면 실망일겁니다.  덕구, 백암, 척산에 비교하면  글쎄요 온천이라고 하기가 ..........  재방문하지는 않을 듯합니다.', '자유 수영하기 좋은 곳. 물이 좋고 온도도 최적', '가성비좋은 숙소이며, 조식도 맛있고, 온천욕하기에도 좋아요!', '티비보면서 멍때리기 좋고 온천물이 아주 좋아요 노천탕없는게 조금 아쉬움', '시설완비! 남탕에 큰 스크린에 메이저리그 틀어주니 그 온탕 안에서의 뻘쭘함, 기싸움은 덜함ㅋㅋ 깨끗하고 온천수도 좋은듯. 다만 지하주차장이 좁고 주차 라인 면적이 일정치 않음.', '온천 매우 좋습니다. 족욕탕에 앉아있으면 웃지못할 일이 벌어집니다. 안에는 분명 사우나인데 밖에서는 거울로 비추는지 사진찍는분 종종 있습니다ㅋㅋㅋ', '시설이 매우 깨끗하고 관리가 잘 되는편.탕안에서도 바다가 잘 보이고 벽면에 큰 스크린이 있습니다. 사우나가 약간 미지근한 편이라 아쉽네요.', '시설도 좋고 깨끗해요.  강추!', '시설도 괜찮고 물도 좋고 사우나 습식 건식 땀빼기도 좋아요.', '바다가 잘 보이는 언덕에 위치해 있고, 냉온탕 열탕 습건식 사우나 모두 잘 갖춰져있어요. 다만 내부 벽 한 쪽에 엄청 큰 스크린이 있는데 시끄러운 뉴스 대신 힐링될 수 있는 편안한 영상을 틀어주면 더 좋겠어요.', '우연찮게 찾은 곳인데 시설 정말 좋습니다. 건성피부에 정말 좋습니다.', '사우나시설최고물도미네랄한가득최고에요']</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>강릉대도호부 관아</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>별자치도 강릉시 명주동</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>['관리가 잘 되어서 깨끗해요우리도 잘 보고 보호하면서 둘러보면참좋을것 같아요 ♡', '비오는 날이라 사람들이 적어 더욱 고즈넉했으며 직원분이 설명을 해주셔서 정말 좋았습니다.', "퇴근 길에 무슨 소리가 들려서 가봤는데'미디어아트' 행사 중이더라구요예전에 프리마켓이랑 야행 행사 구경도 갔었는데좋은거같아요 😊", '좋아요', '올해 야행 축제 지ㅣㄴ짜 재밌었어요', '강릉대도호부 관아: 고려시대부터 조선시대에 걸쳐 중앙의 관리들이 강릉에 내려오면 머물던 건물터월요일 정기휴무라고 써있었는데 왜 일요일에도 닫혀있었는지 모를ㅠ', '최고에요 ~', '조용한 마당이 산책하고 쉬기 좋아요', '강릉 축제로 방문했는데 너무좋았음.무료로 이런 공연을 보다니... 강릉시가 서울시보다 나은거같음. 밤늦게까지 교통 통제하느라 고생한 경찰 관계자분들 고생하셨습니다.', '산책하기 좋아요', '입장료가 없어서 그런지 바닥 잔디도 그렇고 관리가 썩 잘되는 느낌은 아니고 특별히 볼 게 있는 것도 아님. 그냥 지나가다 들려보는 정도', '밤에 이쁘네요. 게다가 무료 ㅎㅎ', '사진 찍기 짱 예쁘다', '모두모두']</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>옥계해변</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>별자치도 강릉시 옥계면 금진솔밭길 148-3</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>['파도도 잔잔하고 물도 깨끗합니다.지금은 초가을이라 옥계해변 쪽에는입수하는 사람들이 없네요. 한적하고 좋아요.', '성수기 끝물이지만, 사람 적어서 좋았습니다.소나무 그늘도 충분히 있어서 최고 입니다.한가지 아쉬운건, 바다에 출입금지 부표가 너무 가까워요.부표 앞에서 일어나보면 허리도 안오는 물 깊이 입니다.(제키 174입니다)조금만 물놀이 할 곳이 넓어지면 좋겠어요', '여긴 나만 알고 싶은 곳...', '작년 봄에 캠핑다녀왔는데 너무 아름답고 좋았던 곳 입니다~', '결론부터 말하자면 몸은 힐링인데 마음은 더러워지는  옥계해수욕장 입니다.해변이 넓고 소나무 숲도 잘 조성되어 있습니다.하지만 마을 운영위원회라는 사람이 수시로 돌아 다니면 일명 자릿세 명목으로 7월.8월에는 기본 15,000원 씩 받습니다.텐트가 좀 크다 싶으면 2만원~.우리텐트는 2인빽패킹용(200*150) 입니다.물론 카드나 영수증 않됩니다.그냥 1일 이용건 명함크기 스티커 한장 .무조건 현금받아 주머니에 넣더군요..장부 기재 이런거 없습니다.관리비 사용처 물어니 청소,물,전기 등 우물쭈물~ 그냥 그렇게 사용 한답니다. 그렇구나 했는데 주변 수시로 봉사하시는 분들을 마주치게 되어 너무 고생 하신다고 말씀드리며 관리비로 인건비.안전요원등.청소,수도등에 사용하시냐고 여쭤보니 청소용역.수도시설.가로등 전기는 시 에서 모두 지원받으며 주민운영위원회에서 일절 아무관계가 없답니다.그러면서 제가 관리비 명목으로 15000원 줬다고 하니 저희 텐트를 보고 저렇게 작은 텐트를 15000천원  받다니 너무 했다고 합니다. 뒤 늦은 후회 ....말그대로 조폭도 아니고 그냥 동네앞이라고 아무런 보상도 없이 자리셋 받다니 이건 아니다 싶네요.도대체 관할행정 부서는 이런걸 용납 합니까? 차라리 관할행정처에서 관리비를 받고 영수증처리 하세요. 눈뜨고 당해보니 어의가 없네요.산책하며 둘려보니 대략 성수기 하루 300동은 칠수있을것 같은데 대략 계산해서 하루 4백오십만원씩  성수기2달이면 2억칠천만원 입니다. 세금 한푼 않네고 고스란히 그 동네 개인 주머니 들어 갑니다.가만보니 한사람이 돈 받으로 다니니 충분이 개인이 착복 가능 합니다.잔돈 주려고 주머니에 꺼내니 정리 되지 않는 돈뭉치가 장난 아니였습니다.옥계해수욕장 주변환경 캠핑환경 좋아요.하지만 동네 주민에게  무상 공양 받치며 캠핑 하지 마세요.관할관청 알면서 모른척 하는건지 이런건 시정조치 하세요..강릉시 그리고 옥계면 관할 기관장님들 정신 챙기세요.더러운 기분 때문에 다시는 옥계 해수욕장 않갑니다.2020년 대한민국 강릉시 옥계 해주욕장은 몸은 힐링인데 마음은 더럽습니다.', '토욜 묵었던곳^^좋아요♡']</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>순긋해변</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>별자치도 강릉시 안현동 235-5</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>['강릉해변중 크게 붐비지않는 작은 해변중하나임 물론 숙박시설들이 제법 몰려있으니 그때는 이야기가달라지겠지만..', '잊을만 하면 또 오는강릉 최애해변 붐비지 않아서 좋다', '잠시 쉬다 갑니다ㅎㅎ', '아이들과 캠핑카 여행중 간곳인데 좋았어요.', '날씨보고가세요..', '너무너무 이쁘고 좋지만 바람이 왕왕 많이 붐', '해안침식이 심각해서 출입통제중', '한적하고 아름다운 순긋해변. 강릉 많이 와봤는데 이런 곳이 있었네요.', '해변은 깨끗한편은 아닌데 물이 엄청 맑고 바람이 세지않았는데 파도가 커서 구경할 맛이 있네요 모래는 푹푹 빠지는 곳이라 신발에 모래들어가요', '평일에 사람없어서 넘좋,,', '여기 강아지가 너무 귀여워요', '차박가능사람많음사유지라고함 돈내야함']</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>연곡해변</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>별자치도 강릉시 연곡면 해안로 1282</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>['직원분들 친절하고 주변이 청결합니다. 물은 당연히 맑고요. 샤워시설도 좋아요', '캠핑장이 최고에요. 조용하고 아이가 모래놀이하기도 쉬기도 멍때리기도 좋은곳.', '조용하고 좋아요', '정말 좋은 장소인데, 솔향기캠핑장 예약하기가 힘들어서 잠시 머물렀다 감. 그래서 4점 ㅠㅠ.', '해파랑길 걸으며 지나간 곳인데, 여기 캠핑장이 널찍널찍 깔끔하고 편리하게 정말 잘 만들어져있다. 아이들과 오기에 딱 좋아보임. 다음에는 캠핑하러 와야지!', '넘 예쁘네요 해변 안쪽 주차장은 캠핑하는 사람들 전용이라서 미리 캠핑한다고 예약하고 들어가야되서 차단기 안열어주고요, 차단기 바깥쪽에 차 대고 해변으로 들어가야하는 구조입니다', '예약은 꽉 찼는데 빈자리가 꽤 있다. 그래서 꽤 한산하다 ㅎ (여기 예약하기 너무 힘들다 -.-) 양수양도를 하면 좋으련만 왜 안하지? 해수욕이용시 캠필객은 무료로 샤워시설을 이용할수 잇다. (여름엔 good ^^b) C구역은 취사장이 너무 멀다 ㅜ. C구역과 A구역 사이 어디쯤 취사장 및 화장실이 하나 있었음 좋겟다(바램ㅎㅎ)', '뷰가 좋은곳', '테크도 넓고  오토캠핑장인데 가격 저렴하고 나무그늘도 많고 대체적으로 깨끗함~ 다만 물이 좀 깊은게 단점?  물을 무서워해서..ㅠ']</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>해안도로</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>별자치도 강릉시 강동면 헌화로 641</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>['드라이브 하기에 너무 좋은 도로', '동해안 최고의 해안드라이브코스가 아닐까지척에 있는 기암석과 바다.. 하지만 좁은 도로경관이 좋아 자칫 하면 사고위험있으니 한눈팔기 금지', '드라이브 코스', '정동진 가는 길에 심곡항 바다 부채길 오르막 오르기 전 해안 도로...동해안을 통틀어 가장 아름 다운 바닷길입니다. 동해안 자전거 종주 중 만난 최고의 뷰... 오히려 정동진이 볼 거 없다는 생각이 들게 만든 길입니다.', '헌화로.', '최악', 'tmap헌화로']</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>노추산모정탑</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>별자치도 강릉시 왕산면 대기리 산 716</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>['저기에 제 생년월일이 적힌 돌탑이 여럿 있습니다저희 외할머니께서는 예전 신일정밀 공장이 있던 논밭에 덩그러니 집 두 채 있던 마을에서,옆집 할머니와 의지하며 지내셨죠아무도 모르는 저희 가정사를 살펴주던 그 할머니는 무당이셨습니다외할머니는 그 할머니와 함께 그 산에 들어가 사셨고,현재 타인에게 공개된 그 집 두세배 되는 크기의 공간이 바로 옆에 있었으며가스레인지로 물을 데워 저희 이모들과 어머니께 커피를 타주셨습니다외할머니도 같이 계시면서 본인 6자매와 손녀 손자들의 탑을 쌓으며 기도하셨습니다아픈손가락인 자녀일수록 탑이 더 많더군요그런데 왜곡된 사실은, 저희 외할머니와 함께 들어가신 이 모정탑의 주인공이신 할머니께서는 아들을 잃으신 적이 없습니다그때 신문기사를 보며 기자가 신문을 잘못 썼다며 혀를 끌끌 차셨습니다그냥 무시하면 그만이라며 신문을 덮어버렸습니다그렇게 약 십여년 정도 집과 산을 왔다갔다 하시다가 산이 아닌 자택에서 깊은 밤 영면하셨습니다노추산모정탑은 자식을 잃은 슬픔으로 지은 탑이 아닌, 한 무당분의 기도와 소원으로 이루어진 탑이며 저희 외할머니의 자식사랑이 보이는 탑입니다', 'ㄴ', '인간의 정성의한계를 보는 모정탑을본다.', '한번가볼곳']</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>경포도립공원</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>별자치도 강릉시 창해로 473</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>['넘조아요오', '죽기 전에 꼭 가보셈', '죽기 전에 한번쯤은 가봐야 하는 아름다운 곳. 비 올 때 특히 아름답다. 바다도 장관.', '말이필요없는 강릉 최고의 관광지. 모텔 횟집이런것만 많고 맥주 같은거 마실수 있는곳이 잘 없다는게 단점.', '무료 주차장도 많고 풍경도 좋음.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>해파랑길 36코스(바우길08구간)</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>['험하지 않은 길이어서 좋다.오르락내리락 간간히 보이는 바다가 바람을 불어주어 좋다. 길다면 중간에 내려가는길도 있어 좋다.하지만 끝까지 10키로 가까운 길을 걸었다.다른 코스도 가봐야겠다.', '지루하고힘든 4시간이상의 산길.그냥 정동진 36 코스시작점에서 38코스끝지점 솔바람다리까지 바닷가 한코스로 만들어야~']</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>해파랑길 39코스(바우길05구간)</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>['걸으면서 보는 경치가 최고입니다 적극 추천합니다', '코스내내 평지를 걷습니다.편의점 숙소등이 코스내내 있어서 보급도 쉽습니다.종점~시작점 택시비 1.5만원 가량']</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>소돌아들바위</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>별자치도 강릉시 주문진읍 주문리</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>['소돌아들바위 그만 문지르세요. 바위에 비벼댄다고 아들이 생기진 않아요. 그럴시간이 있으면 태교에 도움이 되는 책을 찾아보시길^^ 갯바위에서는 항상 조심조심~♬ 밑에서 올려다보는것도 멋지지만, 데크 전망대에 올라가서 내려다보는것도 멋집니다.', '기암괴석과 파도, 물 맑기 등 모든 게 만족스러운 곳사진 포인트로도 좋고 그냥 멍때리기도 좋음3년 전 현지인 추천으로 갔던 곳이고 그 분위기가 넘 맘에 들어 이번 휴가에도 방문함', '정말 물 맑고아름다움여기서 전복도 봄최고', '너무 너무나 풍광이 아름다운 곳용왕님께 빌어 아들을 얻었다는 전설이 깃든 아들바위~', '뷰맛집♡', '좋아요', '입이 쫙 벌어집니다.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>향호해변</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>4.4</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>별자치도 강릉시 주문진읍 향호리</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>['자릿세는 뭔지 모르겠네요안타깝게 호구잡히셨네요ㅠ', 'BTS버스정류장이 있는 예쁜 해변 ⛱️', '(BTS 버정인지도 몰랐던 쪽 뒤) 나무 그늘진 자리에 돗자리 펴고 누워있었는데요. 자릿세 1만원을 내는게 맞는 건가요?텐트치고 숙박시 2만원이라는데관련시설물을 사용한 것도 없는데 이용료를 왜 내야하는지 모르겠어요', '물 깨끗하고 한적함', '수평선이 잘보이고정말예뻤어요!', '해변 한적하고 이쁨']</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
